--- a/output_from_pHEMASBT5050 /data_tables_from_pHEMASBT5050 /stats_analysis_output_mean_pHEMASBT5050 .xlsx
+++ b/output_from_pHEMASBT5050 /data_tables_from_pHEMASBT5050 /stats_analysis_output_mean_pHEMASBT5050 .xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,16 +492,16 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="E4">
-        <v>0.00200823487259071</v>
+        <v>0.0009711981852416809</v>
       </c>
       <c r="F4">
-        <v>0.001877264584588064</v>
+        <v>0.001207853240328202</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>-3.547194715979854E-05</v>
+        <v>-0.001065066588015429</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -519,29 +519,29 @@
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.00180741138533164</v>
+        <v>0.0008740783667175128</v>
       </c>
       <c r="M4">
-        <v>2.868257140381996E-06</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N4">
-        <v>0.009860978893174738</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="E5">
-        <v>0.0009711981852416809</v>
+        <v>0.002198308484299881</v>
       </c>
       <c r="F5">
-        <v>0.001207853240328202</v>
+        <v>0.0008563926097288033</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -550,38 +550,38 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>-0.0003437458694122712</v>
+        <v>0.000754555182951246</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.0008740783667175128</v>
+        <v>0.001978477635869893</v>
       </c>
       <c r="M5">
-        <v>3.339847935961932E-06</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N5">
-        <v>0.006133419606896987</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="E6">
-        <v>0.002198308484299881</v>
+        <v>0.001856535791955778</v>
       </c>
       <c r="F6">
-        <v>0.0008563926097288033</v>
+        <v>0.0007459335665967342</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0.001265986300599415</v>
+        <v>0.0005990003612123527</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -599,29 +599,29 @@
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.001978477635869893</v>
+        <v>0.0016708822127602</v>
       </c>
       <c r="M6">
-        <v>1.705455829098588E-06</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N6">
-        <v>0.01042319923834815</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="E7">
-        <v>0.001856535791955778</v>
+        <v>0.003882206806581865</v>
       </c>
       <c r="F7">
-        <v>0.0007459335665967342</v>
+        <v>0.001407373526177812</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.00104446618298849</v>
+        <v>0.001509579869395504</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -639,29 +639,29 @@
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.0016708822127602</v>
+        <v>0.003493986125923679</v>
       </c>
       <c r="M7">
-        <v>1.426807118196217E-07</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N7">
-        <v>0.00955435976541179</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E8">
-        <v>0.003882206806581865</v>
+        <v>0.006100851311738059</v>
       </c>
       <c r="F8">
-        <v>0.001407373526177812</v>
+        <v>0.0004443978484809313</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.002350052576965338</v>
+        <v>0.005351661216485191</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -679,29 +679,29 @@
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.003493986125923679</v>
+        <v>0.005490766180564253</v>
       </c>
       <c r="M8">
-        <v>9.433799221904267E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N8">
-        <v>0.02419662217442348</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E9">
-        <v>0.006100851311738059</v>
+        <v>0.005257266889256067</v>
       </c>
       <c r="F9">
-        <v>0.0004443978484809313</v>
+        <v>0.001308212563161586</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0.005617052213262962</v>
+        <v>0.003051810903912603</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -719,29 +719,31 @@
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.005490766180564253</v>
+        <v>0.004731540200330461</v>
       </c>
       <c r="M9">
-        <v>5.591068199204361E-07</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N9">
-        <v>0.02503974838733045</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="E10">
-        <v>0.00660633243426291</v>
+        <v>0.001113737578159664</v>
       </c>
       <c r="F10">
-        <v>0.001331893890090445</v>
+        <v>0.0005965591783745018</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -750,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0.005156350024373056</v>
+        <v>0.0001080256261371427</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -759,29 +761,29 @@
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.005945699190836619</v>
+        <v>0.001002363820343697</v>
       </c>
       <c r="M10">
-        <v>5.74799302724474E-05</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N10">
-        <v>0.04078250948616605</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="E11">
-        <v>0.005257266889256067</v>
+        <v>0.002874195031710881</v>
       </c>
       <c r="F11">
-        <v>0.001308212563161586</v>
+        <v>0.000537370433485588</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -790,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0.00383306544265854</v>
+        <v>0.001968266689291335</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -799,31 +801,29 @@
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.004731540200330461</v>
+        <v>0.002586775528539793</v>
       </c>
       <c r="M11">
-        <v>1.129340819328157E-05</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N11">
-        <v>0.04052739127429032</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="E12">
-        <v>0.002595644646538671</v>
+        <v>0.003205541041242167</v>
       </c>
       <c r="F12">
-        <v>0.001423401083540673</v>
+        <v>0.0009219078264732014</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0.001046041822538944</v>
+        <v>0.001651338619491561</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -841,29 +841,29 @@
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.002336080181884804</v>
+        <v>0.00288498693711795</v>
       </c>
       <c r="M12">
-        <v>2.868257140381996E-06</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N12">
-        <v>0.009860978893174738</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="E13">
-        <v>0.001113737578159664</v>
+        <v>0.008788462343058325</v>
       </c>
       <c r="F13">
-        <v>0.0005965591783745018</v>
+        <v>0.002590883975993353</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.0004642862055412099</v>
+        <v>0.004420609034590114</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -881,29 +881,29 @@
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.001002363820343697</v>
+        <v>0.007909616108752493</v>
       </c>
       <c r="M13">
-        <v>3.339847935961932E-06</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N13">
-        <v>0.006133419606896987</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="E14">
-        <v>0.002874195031710881</v>
+        <v>0.01300455617421738</v>
       </c>
       <c r="F14">
-        <v>0.000537370433485588</v>
+        <v>0.001246169184440042</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -912,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0.002289180202867364</v>
+        <v>0.01090369629565772</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -921,29 +921,29 @@
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.002586775528539793</v>
+        <v>0.01170410055679564</v>
       </c>
       <c r="M14">
-        <v>1.705455829098588E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N14">
-        <v>0.01042319923834815</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E15">
-        <v>0.003205541041242167</v>
+        <v>0.006985479410381455</v>
       </c>
       <c r="F15">
-        <v>0.0009219078264732014</v>
+        <v>0.004474949387333957</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -952,38 +952,40 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0.002201894923580981</v>
+        <v>-0.0005586339763248927</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.00288498693711795</v>
+        <v>0.006286931469343309</v>
       </c>
       <c r="M15">
-        <v>1.426807118196217E-07</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N15">
-        <v>0.00955435976541179</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="E16">
-        <v>0.008788462343058325</v>
+        <v>0.003337266308963031</v>
       </c>
       <c r="F16">
-        <v>0.002590883975993353</v>
+        <v>0.002918021051154458</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -992,38 +994,38 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>0.005967865132419616</v>
+        <v>-0.001582092496974324</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.007909616108752493</v>
+        <v>0.003003539678066728</v>
       </c>
       <c r="M16">
-        <v>9.433799221904267E-06</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N16">
-        <v>0.02419662217442348</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="E17">
-        <v>0.01300455617421738</v>
+        <v>0.004441612755607316</v>
       </c>
       <c r="F17">
-        <v>0.001246169184440042</v>
+        <v>0.001866368513996327</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1032,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>0.01164789900308031</v>
+        <v>0.001295187070700201</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1041,29 +1043,29 @@
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.01170410055679564</v>
+        <v>0.003997451480046585</v>
       </c>
       <c r="M17">
-        <v>5.591068199204361E-07</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N17">
-        <v>0.02503974838733045</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="E18">
-        <v>0.009833750098491406</v>
+        <v>0.003968620380319644</v>
       </c>
       <c r="F18">
-        <v>0.008980671387738722</v>
+        <v>0.001918912518009901</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1072,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>5.683345512578347E-05</v>
+        <v>0.0007336131518554242</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1081,29 +1083,29 @@
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.008850375088642266</v>
+        <v>0.00357175834228768</v>
       </c>
       <c r="M18">
-        <v>5.74799302724474E-05</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N18">
-        <v>0.04078250948616605</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="E19">
-        <v>0.006985479410381455</v>
+        <v>0.008838628437163239</v>
       </c>
       <c r="F19">
-        <v>0.004474949387333957</v>
+        <v>0.0006125222979890558</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1112,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.002113771577604328</v>
+        <v>0.007806004988729471</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1121,31 +1123,29 @@
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.006286931469343309</v>
+        <v>0.007954765593446916</v>
       </c>
       <c r="M19">
-        <v>1.129340819328157E-05</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N19">
-        <v>0.04052739127429032</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1"/>
-      <c r="B20" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="E20">
-        <v>0.004412430257771272</v>
+        <v>0.0186285388795204</v>
       </c>
       <c r="F20">
-        <v>0.003888685658370027</v>
+        <v>0.001092902187527971</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>0.0001789655319554715</v>
+        <v>0.01678606485140575</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1163,29 +1163,29 @@
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.003971187231994145</v>
+        <v>0.01676568499156837</v>
       </c>
       <c r="M20">
-        <v>2.868257140381996E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N20">
-        <v>0.009860978893174738</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E21">
-        <v>0.003337266308963031</v>
+        <v>0.008760030960066403</v>
       </c>
       <c r="F21">
-        <v>0.002918021051154458</v>
+        <v>0.001539879487830423</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.0001605273605059985</v>
+        <v>0.006164018256339024</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1203,29 +1203,31 @@
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.003003539678066728</v>
+        <v>0.007884027864059763</v>
       </c>
       <c r="M21">
-        <v>3.339847935961932E-06</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N21">
-        <v>0.006133419606896987</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="E22">
-        <v>0.004441612755607316</v>
+        <v>0.004644524191471979</v>
       </c>
       <c r="F22">
-        <v>0.001866368513996327</v>
+        <v>0.001273164832303842</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1234,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0.002409768075035075</v>
+        <v>0.002498153579537645</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1243,29 +1245,29 @@
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.003997451480046585</v>
+        <v>0.004180071772324781</v>
       </c>
       <c r="M22">
-        <v>1.705455829098588E-06</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N22">
-        <v>0.01042319923834815</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="E23">
-        <v>0.003968620380319644</v>
+        <v>0.005899783577392036</v>
       </c>
       <c r="F23">
-        <v>0.001918912518009901</v>
+        <v>0.001345464140287799</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1274,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0.001879573033580286</v>
+        <v>0.003631526854576719</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1283,29 +1285,29 @@
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.00357175834228768</v>
+        <v>0.005309805219652832</v>
       </c>
       <c r="M23">
-        <v>1.426807118196217E-07</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N23">
-        <v>0.00955435976541179</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="E24">
-        <v>0.008838628437163239</v>
+        <v>0.004540635282410746</v>
       </c>
       <c r="F24">
-        <v>0.0006125222979890558</v>
+        <v>0.0007857930922534819</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1314,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>0.008171798621096488</v>
+        <v>0.003215902492531605</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1323,29 +1325,29 @@
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.007954765593446916</v>
+        <v>0.004086571754169672</v>
       </c>
       <c r="M24">
-        <v>9.433799221904267E-06</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N24">
-        <v>0.02419662217442348</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="E25">
-        <v>0.0186285388795204</v>
+        <v>0.007592620385604189</v>
       </c>
       <c r="F25">
-        <v>0.001092902187527971</v>
+        <v>0.0008625395943196312</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1354,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>0.0174387376803137</v>
+        <v>0.006138504162862343</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1363,29 +1365,29 @@
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.01676568499156837</v>
+        <v>0.00683335834704377</v>
       </c>
       <c r="M25">
-        <v>5.591068199204361E-07</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N25">
-        <v>0.02503974838733045</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="E26">
-        <v>0.01159518973032905</v>
+        <v>0.02328393106683874</v>
       </c>
       <c r="F26">
-        <v>0.003952319462964225</v>
+        <v>0.0006894636883015094</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1394,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>0.007292449292669796</v>
+        <v>0.02212159563232287</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1403,13 +1405,13 @@
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.01043567075729614</v>
+        <v>0.02095553796015487</v>
       </c>
       <c r="M26">
-        <v>5.74799302724474E-05</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N26">
-        <v>0.04078250948616605</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1422,10 +1424,10 @@
         <v>0.9910000000000001</v>
       </c>
       <c r="E27">
-        <v>0.008760030960066403</v>
+        <v>0.005951541785950548</v>
       </c>
       <c r="F27">
-        <v>0.001539879487830423</v>
+        <v>0.001073923414516004</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1434,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>0.007083622510927345</v>
+        <v>0.004141063206979538</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1443,31 +1445,31 @@
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.007884027864059763</v>
+        <v>0.005356387607355493</v>
       </c>
       <c r="M27">
-        <v>1.129340819328157E-05</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N27">
-        <v>0.04052739127429032</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="E28">
-        <v>0.005833702384017393</v>
+        <v>0.004625530438318182</v>
       </c>
       <c r="F28">
-        <v>0.002381334094077845</v>
+        <v>0.002408937754648077</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1476,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>0.00324123418953578</v>
+        <v>0.000564411978739356</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1485,29 +1487,29 @@
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.005250332145615654</v>
+        <v>0.004162977394486364</v>
       </c>
       <c r="M28">
-        <v>2.868257140381996E-06</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N28">
-        <v>0.009860978893174738</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="E29">
-        <v>0.004644524191471979</v>
+        <v>0.005249480495684362</v>
       </c>
       <c r="F29">
-        <v>0.001273164832303842</v>
+        <v>0.001889240004453549</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1516,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>0.003258477881427283</v>
+        <v>0.002064496806563695</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1525,29 +1527,29 @@
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.004180071772324781</v>
+        <v>0.004724532446115925</v>
       </c>
       <c r="M29">
-        <v>3.339847935961932E-06</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N29">
-        <v>0.006133419606896987</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="E30">
-        <v>0.005899783577392036</v>
+        <v>0.004741919737804179</v>
       </c>
       <c r="F30">
-        <v>0.001345464140287799</v>
+        <v>0.001411940589959257</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1556,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>0.004435027750317551</v>
+        <v>0.002361593395768892</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1565,29 +1567,29 @@
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.005309805219652832</v>
+        <v>0.004267727764023761</v>
       </c>
       <c r="M30">
-        <v>1.705455829098588E-06</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N30">
-        <v>0.01042319923834815</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="E31">
-        <v>0.004540635282410746</v>
+        <v>0.007446217803930913</v>
       </c>
       <c r="F31">
-        <v>0.0007857930922534819</v>
+        <v>0.002272128994930491</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1596,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>0.003685172118221944</v>
+        <v>0.003615739002205073</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1605,29 +1607,29 @@
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.004086571754169672</v>
+        <v>0.006701596023537822</v>
       </c>
       <c r="M31">
-        <v>1.426807118196217E-07</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N31">
-        <v>0.00955435976541179</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E32">
-        <v>0.007592620385604189</v>
+        <v>0.02830488922835555</v>
       </c>
       <c r="F32">
-        <v>0.0008625395943196312</v>
+        <v>0.001220012706686251</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1636,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>0.006653606212701821</v>
+        <v>0.02624812536449719</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -1645,29 +1647,29 @@
         <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.00683335834704377</v>
+        <v>0.02547440030552</v>
       </c>
       <c r="M32">
-        <v>9.433799221904267E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N32">
-        <v>0.02419662217442348</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E33">
-        <v>0.02328393106683874</v>
+        <v>0.004941757507921324</v>
       </c>
       <c r="F33">
-        <v>0.0006894636883015094</v>
+        <v>0.003457111093995022</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1676,38 +1678,40 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>0.02253333807460939</v>
+        <v>-0.0008864286515375807</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.02095553796015487</v>
+        <v>0.004447581757129192</v>
       </c>
       <c r="M33">
-        <v>5.591068199204361E-07</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N33">
-        <v>0.02503974838733045</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C34" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="E34">
-        <v>0.004470399233163825</v>
+        <v>0.003762033772144316</v>
       </c>
       <c r="F34">
-        <v>0.003378525445063036</v>
+        <v>0.001511430332371591</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1716,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>0.0007923266005353882</v>
+        <v>0.001213982204054567</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1725,29 +1729,29 @@
         <v>0.9</v>
       </c>
       <c r="L34">
-        <v>0.004023359309847443</v>
+        <v>0.003385830394929884</v>
       </c>
       <c r="M34">
-        <v>5.74799302724474E-05</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N34">
-        <v>0.04078250948616605</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="E35">
-        <v>0.005951541785950548</v>
+        <v>0.005011021969987896</v>
       </c>
       <c r="F35">
-        <v>0.001073923414516004</v>
+        <v>0.002064965929721193</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1756,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>0.004782402057776471</v>
+        <v>0.001529789945868114</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -1765,31 +1769,29 @@
         <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0.005356387607355493</v>
+        <v>0.004509919772989106</v>
       </c>
       <c r="M35">
-        <v>1.129340819328157E-05</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N35">
-        <v>0.04052739127429032</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1"/>
-      <c r="B36" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="E36">
-        <v>0.006128033428246905</v>
+        <v>0.00452779350533522</v>
       </c>
       <c r="F36">
-        <v>0.003017609058614419</v>
+        <v>0.000784261213254063</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1798,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>0.002842876789666587</v>
+        <v>0.003205643240500728</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -1807,29 +1809,29 @@
         <v>0.9</v>
       </c>
       <c r="L36">
-        <v>0.005515230085422215</v>
+        <v>0.004075014154801698</v>
       </c>
       <c r="M36">
-        <v>2.868257140381996E-06</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N36">
-        <v>0.009860978893174738</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="E37">
-        <v>0.004625530438318182</v>
+        <v>0.01100752610377098</v>
       </c>
       <c r="F37">
-        <v>0.002408937754648077</v>
+        <v>0.0005674369030018548</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1838,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>0.002003011184534324</v>
+        <v>0.01005091006959548</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -1847,29 +1849,29 @@
         <v>0.9</v>
       </c>
       <c r="L37">
-        <v>0.004162977394486364</v>
+        <v>0.009906773493393878</v>
       </c>
       <c r="M37">
-        <v>3.339847935961932E-06</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N37">
-        <v>0.006133419606896987</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="E38">
-        <v>0.005249480495684362</v>
+        <v>0.03301150721400911</v>
       </c>
       <c r="F38">
-        <v>0.001889240004453549</v>
+        <v>0.001440158420107391</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1878,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="I38">
-        <v>0.003192736490100063</v>
+        <v>0.03058360971714314</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -1887,29 +1889,29 @@
         <v>0.9</v>
       </c>
       <c r="L38">
-        <v>0.004724532446115925</v>
+        <v>0.0297103564926082</v>
       </c>
       <c r="M38">
-        <v>1.705455829098588E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N38">
-        <v>0.01042319923834815</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E39">
-        <v>0.004741919737804179</v>
+        <v>0.008983717282990489</v>
       </c>
       <c r="F39">
-        <v>0.001411940589959257</v>
+        <v>0.002129488947506372</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -1918,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>0.003204793518904413</v>
+        <v>0.005393708841510183</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -1927,29 +1929,31 @@
         <v>0.9</v>
       </c>
       <c r="L39">
-        <v>0.004267727764023761</v>
+        <v>0.008085345554691441</v>
       </c>
       <c r="M39">
-        <v>1.426807118196217E-07</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N39">
-        <v>0.00955435976541179</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>1.75</v>
+      </c>
       <c r="C40" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="E40">
-        <v>0.007446217803930913</v>
+        <v>0.003530934059613272</v>
       </c>
       <c r="F40">
-        <v>0.002272128994930491</v>
+        <v>0.001414600146693562</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1958,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>0.004972637062880886</v>
+        <v>0.001146124091993578</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -1967,29 +1971,29 @@
         <v>0.9</v>
       </c>
       <c r="L40">
-        <v>0.006701596023537822</v>
+        <v>0.003177840653651945</v>
       </c>
       <c r="M40">
-        <v>9.433799221904267E-06</v>
+        <v>3.269656268724397E-06</v>
       </c>
       <c r="N40">
-        <v>0.02419662217442348</v>
+        <v>0.005728004867931246</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="E41">
-        <v>0.02830488922835555</v>
+        <v>0.004748842393791101</v>
       </c>
       <c r="F41">
-        <v>0.001220012706686251</v>
+        <v>0.001913406204752593</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1998,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>0.02697670762342526</v>
+        <v>0.001523118008094541</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -2007,29 +2011,29 @@
         <v>0.9</v>
       </c>
       <c r="L41">
-        <v>0.02547440030552</v>
+        <v>0.004273958154411991</v>
       </c>
       <c r="M41">
-        <v>5.591068199204361E-07</v>
+        <v>1.705455829098588E-06</v>
       </c>
       <c r="N41">
-        <v>0.02503974838733045</v>
+        <v>0.01042319923834815</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="E42">
-        <v>0.003969650866706456</v>
+        <v>0.00459827484543775</v>
       </c>
       <c r="F42">
-        <v>0.006872743542954664</v>
+        <v>0.0003875700869084868</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2038,38 +2042,38 @@
         <v>3</v>
       </c>
       <c r="I42">
-        <v>-0.00351244460584776</v>
+        <v>0.003944888085531797</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0.9</v>
       </c>
       <c r="L42">
-        <v>0.00357268578003581</v>
+        <v>0.004138447360893974</v>
       </c>
       <c r="M42">
-        <v>5.74799302724474E-05</v>
+        <v>1.426807118196217E-07</v>
       </c>
       <c r="N42">
-        <v>0.04078250948616605</v>
+        <v>0.00955435976541179</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="E43">
-        <v>0.004941757507921324</v>
+        <v>0.01002259963447487</v>
       </c>
       <c r="F43">
-        <v>0.003457111093995022</v>
+        <v>0.0004830124467248316</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2078,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="I43">
-        <v>0.001178131657075614</v>
+        <v>0.009208310946518665</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -2087,31 +2091,29 @@
         <v>0.9</v>
       </c>
       <c r="L43">
-        <v>0.004447581757129192</v>
+        <v>0.009020339671027382</v>
       </c>
       <c r="M43">
-        <v>1.129340819328157E-05</v>
+        <v>9.433799221904267E-06</v>
       </c>
       <c r="N43">
-        <v>0.04052739127429032</v>
+        <v>0.02419662217442348</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1"/>
-      <c r="B44" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="E44">
-        <v>0.005105216748510563</v>
+        <v>0.03638944433085989</v>
       </c>
       <c r="F44">
-        <v>0.003195876972670469</v>
+        <v>0.0008204172953185082</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2120,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>0.001625986586842399</v>
+        <v>0.03500634017379027</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -2129,38 +2131,38 @@
         <v>0.9</v>
       </c>
       <c r="L44">
-        <v>0.004594695073659507</v>
+        <v>0.03275049989777391</v>
       </c>
       <c r="M44">
-        <v>2.868257140381996E-06</v>
+        <v>5.591068199204361E-07</v>
       </c>
       <c r="N44">
-        <v>0.009860978893174738</v>
+        <v>0.02503974838733045</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="E45">
-        <v>0.003762033772144316</v>
+        <v>0.005883250099860847</v>
       </c>
       <c r="F45">
-        <v>0.001511430332371591</v>
+        <v>0.002437816774572632</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0.002116596840555146</v>
+        <v>0.003014715670847968</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -2169,588 +2171,26 @@
         <v>0.9</v>
       </c>
       <c r="L45">
-        <v>0.003385830394929884</v>
+        <v>0.005294925089874763</v>
       </c>
       <c r="M45">
-        <v>3.339847935961932E-06</v>
+        <v>7.357448550399054E-06</v>
       </c>
       <c r="N45">
-        <v>0.006133419606896987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3.36435</v>
-      </c>
-      <c r="E46">
-        <v>0.005011021969987896</v>
-      </c>
-      <c r="F46">
-        <v>0.002064965929721193</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>0.002762971808188405</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.9</v>
-      </c>
-      <c r="L46">
-        <v>0.004509919772989106</v>
-      </c>
-      <c r="M46">
-        <v>1.705455829098588E-06</v>
-      </c>
-      <c r="N46">
-        <v>0.01042319923834815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.17225</v>
-      </c>
-      <c r="E47">
-        <v>0.00452779350533522</v>
-      </c>
-      <c r="F47">
-        <v>0.000784261213254063</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>0.003673998039766979</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0.9</v>
-      </c>
-      <c r="L47">
-        <v>0.004075014154801698</v>
-      </c>
-      <c r="M47">
-        <v>1.426807118196217E-07</v>
-      </c>
-      <c r="N47">
-        <v>0.00955435976541179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2.9293</v>
-      </c>
-      <c r="E48">
-        <v>0.01100752610377098</v>
-      </c>
-      <c r="F48">
-        <v>0.0005674369030018548</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>0.01038977904884666</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0.9</v>
-      </c>
-      <c r="L48">
-        <v>0.009906773493393878</v>
-      </c>
-      <c r="M48">
-        <v>9.433799221904267E-06</v>
-      </c>
-      <c r="N48">
-        <v>0.02419662217442348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E49">
-        <v>0.03301150721400911</v>
-      </c>
-      <c r="F49">
-        <v>0.001440158420107391</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>0.03144366131265981</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0.9</v>
-      </c>
-      <c r="L49">
-        <v>0.0297103564926082</v>
-      </c>
-      <c r="M49">
-        <v>5.591068199204361E-07</v>
-      </c>
-      <c r="N49">
-        <v>0.02503974838733045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.63405</v>
-      </c>
-      <c r="E50">
-        <v>0.01588829771712799</v>
-      </c>
-      <c r="F50">
-        <v>0.001591734275075805</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>0.01415543692600148</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0.9</v>
-      </c>
-      <c r="L50">
-        <v>0.01429946794541519</v>
-      </c>
-      <c r="M50">
-        <v>5.74799302724474E-05</v>
-      </c>
-      <c r="N50">
-        <v>0.04078250948616605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>9</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="E51">
-        <v>0.008983717282990489</v>
-      </c>
-      <c r="F51">
-        <v>0.002129488947506372</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>0.006665423356640681</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.9</v>
-      </c>
-      <c r="L51">
-        <v>0.008085345554691441</v>
-      </c>
-      <c r="M51">
-        <v>1.129340819328157E-05</v>
-      </c>
-      <c r="N51">
-        <v>0.04052739127429032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3.8138</v>
-      </c>
-      <c r="E52">
-        <v>0.004619117163663473</v>
-      </c>
-      <c r="F52">
-        <v>0.00326143125830726</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52">
-        <v>0.001068520535211843</v>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>0.9</v>
-      </c>
-      <c r="L52">
-        <v>0.004157205447297126</v>
-      </c>
-      <c r="M52">
-        <v>2.868257140381996E-06</v>
-      </c>
-      <c r="N52">
-        <v>0.009860978893174738</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3.51005</v>
-      </c>
-      <c r="E53">
-        <v>0.003530934059613272</v>
-      </c>
-      <c r="F53">
-        <v>0.001414600146693562</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>0.001990912482073048</v>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0.9</v>
-      </c>
-      <c r="L53">
-        <v>0.003177840653651945</v>
-      </c>
-      <c r="M53">
-        <v>3.339847935961932E-06</v>
-      </c>
-      <c r="N53">
-        <v>0.006133419606896987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3.36435</v>
-      </c>
-      <c r="E54">
-        <v>0.004748842393791101</v>
-      </c>
-      <c r="F54">
-        <v>0.001913406204752593</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>0.002665789561649222</v>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>0.9</v>
-      </c>
-      <c r="L54">
-        <v>0.004273958154411991</v>
-      </c>
-      <c r="M54">
-        <v>1.705455829098588E-06</v>
-      </c>
-      <c r="N54">
-        <v>0.01042319923834815</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3.17225</v>
-      </c>
-      <c r="E55">
-        <v>0.00459827484543775</v>
-      </c>
-      <c r="F55">
-        <v>0.0003875700869084868</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <v>0.004176341977663556</v>
-      </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0.9</v>
-      </c>
-      <c r="L55">
-        <v>0.004138447360893974</v>
-      </c>
-      <c r="M55">
-        <v>1.426807118196217E-07</v>
-      </c>
-      <c r="N55">
-        <v>0.00955435976541179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2.9293</v>
-      </c>
-      <c r="E56">
-        <v>0.01002259963447487</v>
-      </c>
-      <c r="F56">
-        <v>0.0004830124467248316</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>0.009496762286079714</v>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0.9</v>
-      </c>
-      <c r="L56">
-        <v>0.009020339671027382</v>
-      </c>
-      <c r="M56">
-        <v>9.433799221904267E-06</v>
-      </c>
-      <c r="N56">
-        <v>0.02419662217442348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E57">
-        <v>0.03638944433085989</v>
-      </c>
-      <c r="F57">
-        <v>0.0008204172953185082</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>0.03549628710877784</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0.9</v>
-      </c>
-      <c r="L57">
-        <v>0.03275049989777391</v>
-      </c>
-      <c r="M57">
-        <v>5.591068199204361E-07</v>
-      </c>
-      <c r="N57">
-        <v>0.02503974838733045</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1.63405</v>
-      </c>
-      <c r="E58">
-        <v>0.008366527292856423</v>
-      </c>
-      <c r="F58">
-        <v>0.001224399626080421</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>0.007033569815011273</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0.9</v>
-      </c>
-      <c r="L58">
-        <v>0.007529874563570781</v>
-      </c>
-      <c r="M58">
-        <v>5.74799302724474E-05</v>
-      </c>
-      <c r="N58">
-        <v>0.04078250948616605</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="E59">
-        <v>0.005883250099860847</v>
-      </c>
-      <c r="F59">
-        <v>0.002437816774572632</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>0.003886989766619542</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0.9</v>
-      </c>
-      <c r="L59">
-        <v>0.005294925089874763</v>
-      </c>
-      <c r="M59">
-        <v>1.129340819328157E-05</v>
-      </c>
-      <c r="N59">
-        <v>0.04052739127429032</v>
+        <v>0.03585046450651636</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A59"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A4:A45"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
